--- a/medicine/Enfance/Olivier_Lhote/Olivier_Lhote.xlsx
+++ b/medicine/Enfance/Olivier_Lhote/Olivier_Lhote.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olivier Lhote est un auteur français de livres pour la jeunesse, né en 1965 aux Lilas.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Scénariste de la BD Homo Familiaris chez FLUIDE GLACIAL depuis Fev 2024 et Auteur de la BD GIBUS, aux éditions BAYARD PRESSE, Olivier Lhote est auteur de livres pour la jeunesse depuis 2001[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scénariste de la BD Homo Familiaris chez FLUIDE GLACIAL depuis Fev 2024 et Auteur de la BD GIBUS, aux éditions BAYARD PRESSE, Olivier Lhote est auteur de livres pour la jeunesse depuis 2001
 Il travaille en collaboration avec différents éditeurs, tels que Milan, Larousse Jeunesse, Fleurus ou Bayard Presse.
 Né en 1965 en banlieue parisienne, (Les Lilas),  il se passionne très tôt pour l'écrit et la parole.
 Il se consacre essentiellement à l'écriture jeunesse qui lui offre d'échanger plus facilement avec le lecteur lors de rencontres scolaires.
@@ -552,7 +566,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Homo Familiaris BD Fluide Glacial - scénario Lhote - Dessins Guillaume Guerse Depuis février 2024
 GIBUS Tome 2 nouveau lancement : Fantômes et sorcières. Editions BD Kids avril 2024
